--- a/arima_train_predictions_and_data.xlsx
+++ b/arima_train_predictions_and_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B416"/>
+  <dimension ref="A1:B417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,3321 +454,3329 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44927.00069444445</v>
+        <v>44927</v>
       </c>
       <c r="B2" t="n">
-        <v>25.20000045623707</v>
+        <v>25.95476190476191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44927.00138888889</v>
+        <v>44927.00069444445</v>
       </c>
       <c r="B3" t="n">
-        <v>26.12050348792234</v>
+        <v>25.20000045623707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44927.00208333333</v>
+        <v>44927.00138888889</v>
       </c>
       <c r="B4" t="n">
-        <v>26.78927885353334</v>
+        <v>26.12050348792234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44927.00277777778</v>
+        <v>44927.00208333333</v>
       </c>
       <c r="B5" t="n">
-        <v>27.46835948286067</v>
+        <v>26.78927885353334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44927.00347222222</v>
+        <v>44927.00277777778</v>
       </c>
       <c r="B6" t="n">
-        <v>26.69657797327908</v>
+        <v>27.46835948286067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44927.00416666667</v>
+        <v>44927.00347222222</v>
       </c>
       <c r="B7" t="n">
-        <v>26.69794494190945</v>
+        <v>26.69657797327908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44927.00486111111</v>
+        <v>44927.00416666667</v>
       </c>
       <c r="B8" t="n">
-        <v>26.60490576112403</v>
+        <v>26.69794494190945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44927.00555555556</v>
+        <v>44927.00486111111</v>
       </c>
       <c r="B9" t="n">
-        <v>26.66198982470852</v>
+        <v>26.60490576112403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44927.00625</v>
+        <v>44927.00555555556</v>
       </c>
       <c r="B10" t="n">
-        <v>26.96160197374727</v>
+        <v>26.66198982470852</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44927.00694444445</v>
+        <v>44927.00625</v>
       </c>
       <c r="B11" t="n">
-        <v>26.97057659009345</v>
+        <v>26.96160197374727</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44927.00763888889</v>
+        <v>44927.00694444445</v>
       </c>
       <c r="B12" t="n">
-        <v>26.91198727845985</v>
+        <v>26.97057659009345</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44927.00833333333</v>
+        <v>44927.00763888889</v>
       </c>
       <c r="B13" t="n">
-        <v>27.03883098644012</v>
+        <v>26.91198727845985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44927.00902777778</v>
+        <v>44927.00833333333</v>
       </c>
       <c r="B14" t="n">
-        <v>26.32485093494492</v>
+        <v>27.03883098644012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44927.00972222222</v>
+        <v>44927.00902777778</v>
       </c>
       <c r="B15" t="n">
-        <v>26.36025591396668</v>
+        <v>26.32485093494492</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44927.01041666666</v>
+        <v>44927.00972222222</v>
       </c>
       <c r="B16" t="n">
-        <v>26.7117066294817</v>
+        <v>26.36025591396668</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44927.01111111111</v>
+        <v>44927.01041666666</v>
       </c>
       <c r="B17" t="n">
-        <v>26.12841528585699</v>
+        <v>26.7117066294817</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44927.01180555556</v>
+        <v>44927.01111111111</v>
       </c>
       <c r="B18" t="n">
-        <v>26.9397357067871</v>
+        <v>26.12841528585699</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44927.0125</v>
+        <v>44927.01180555556</v>
       </c>
       <c r="B19" t="n">
-        <v>26.85362851041797</v>
+        <v>26.9397357067871</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44927.01319444444</v>
+        <v>44927.0125</v>
       </c>
       <c r="B20" t="n">
-        <v>27.35118879089429</v>
+        <v>26.85362851041797</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44927.01388888889</v>
+        <v>44927.01319444444</v>
       </c>
       <c r="B21" t="n">
-        <v>26.59593229617874</v>
+        <v>27.35118879089429</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44927.01458333333</v>
+        <v>44927.01388888889</v>
       </c>
       <c r="B22" t="n">
-        <v>26.40820861959433</v>
+        <v>26.59593229617874</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44927.01527777778</v>
+        <v>44927.01458333333</v>
       </c>
       <c r="B23" t="n">
-        <v>26.5930312554917</v>
+        <v>26.40820861959433</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44927.01597222222</v>
+        <v>44927.01527777778</v>
       </c>
       <c r="B24" t="n">
-        <v>26.26709349524569</v>
+        <v>26.5930312554917</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44927.01666666667</v>
+        <v>44927.01597222222</v>
       </c>
       <c r="B25" t="n">
-        <v>26.4666923797664</v>
+        <v>26.26709349524569</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44927.01736111111</v>
+        <v>44927.01666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>26.79711715053316</v>
+        <v>26.4666923797664</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44927.01805555556</v>
+        <v>44927.01736111111</v>
       </c>
       <c r="B27" t="n">
-        <v>27.53165706164063</v>
+        <v>26.79711715053316</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44927.01875</v>
+        <v>44927.01805555556</v>
       </c>
       <c r="B28" t="n">
-        <v>27.93997901723908</v>
+        <v>27.53165706164063</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44927.01944444444</v>
+        <v>44927.01875</v>
       </c>
       <c r="B29" t="n">
-        <v>28.13285423602727</v>
+        <v>27.93997901723908</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44927.02013888889</v>
+        <v>44927.01944444444</v>
       </c>
       <c r="B30" t="n">
-        <v>27.70861306570521</v>
+        <v>28.13285423602727</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44927.02083333334</v>
+        <v>44927.02013888889</v>
       </c>
       <c r="B31" t="n">
-        <v>27.60314214727074</v>
+        <v>27.70861306570521</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44927.02152777778</v>
+        <v>44927.02083333334</v>
       </c>
       <c r="B32" t="n">
-        <v>27.32855465314091</v>
+        <v>27.60314214727074</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44927.02222222222</v>
+        <v>44927.02152777778</v>
       </c>
       <c r="B33" t="n">
-        <v>27.48638871350774</v>
+        <v>27.32855465314091</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44927.02291666667</v>
+        <v>44927.02222222222</v>
       </c>
       <c r="B34" t="n">
-        <v>27.12606491626316</v>
+        <v>27.48638871350774</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44927.02361111111</v>
+        <v>44927.02291666667</v>
       </c>
       <c r="B35" t="n">
-        <v>26.70362972258254</v>
+        <v>27.12606491626316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44927.02430555555</v>
+        <v>44927.02361111111</v>
       </c>
       <c r="B36" t="n">
-        <v>27.38645234054042</v>
+        <v>26.70362972258254</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44927.025</v>
+        <v>44927.02430555555</v>
       </c>
       <c r="B37" t="n">
-        <v>27.22510253433507</v>
+        <v>27.38645234054042</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44927.02569444444</v>
+        <v>44927.025</v>
       </c>
       <c r="B38" t="n">
-        <v>28.16980050499706</v>
+        <v>27.22510253433507</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44927.02638888889</v>
+        <v>44927.02569444444</v>
       </c>
       <c r="B39" t="n">
-        <v>27.82609134313142</v>
+        <v>28.16980050499706</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44927.02708333333</v>
+        <v>44927.02638888889</v>
       </c>
       <c r="B40" t="n">
-        <v>27.53478455036831</v>
+        <v>27.82609134313142</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44927.02777777778</v>
+        <v>44927.02708333333</v>
       </c>
       <c r="B41" t="n">
-        <v>27.35686732540105</v>
+        <v>27.53478455036831</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44927.02847222222</v>
+        <v>44927.02777777778</v>
       </c>
       <c r="B42" t="n">
-        <v>27.38915083451128</v>
+        <v>27.35686732540105</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44927.02916666667</v>
+        <v>44927.02847222222</v>
       </c>
       <c r="B43" t="n">
-        <v>27.37790550731732</v>
+        <v>27.38915083451128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44927.02986111111</v>
+        <v>44927.02916666667</v>
       </c>
       <c r="B44" t="n">
-        <v>27.13228170418879</v>
+        <v>27.37790550731732</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44927.03055555555</v>
+        <v>44927.02986111111</v>
       </c>
       <c r="B45" t="n">
-        <v>27.68008798418461</v>
+        <v>27.13228170418879</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44927.03125</v>
+        <v>44927.03055555555</v>
       </c>
       <c r="B46" t="n">
-        <v>28.31366922150901</v>
+        <v>27.68008798418461</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44927.03194444445</v>
+        <v>44927.03125</v>
       </c>
       <c r="B47" t="n">
-        <v>27.32809448009386</v>
+        <v>28.31366922150901</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44927.03263888889</v>
+        <v>44927.03194444445</v>
       </c>
       <c r="B48" t="n">
-        <v>26.81806212225393</v>
+        <v>27.32809448009386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44927.03333333333</v>
+        <v>44927.03263888889</v>
       </c>
       <c r="B49" t="n">
-        <v>26.92815128462313</v>
+        <v>26.81806212225393</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44927.03402777778</v>
+        <v>44927.03333333333</v>
       </c>
       <c r="B50" t="n">
-        <v>27.71100581237567</v>
+        <v>26.92815128462313</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44927.03472222222</v>
+        <v>44927.03402777778</v>
       </c>
       <c r="B51" t="n">
-        <v>28.75491978256154</v>
+        <v>27.71100581237567</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44927.03541666667</v>
+        <v>44927.03472222222</v>
       </c>
       <c r="B52" t="n">
-        <v>28.67791066523171</v>
+        <v>28.75491978256154</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44927.03611111111</v>
+        <v>44927.03541666667</v>
       </c>
       <c r="B53" t="n">
-        <v>28.83664196393002</v>
+        <v>28.67791066523171</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44927.03680555556</v>
+        <v>44927.03611111111</v>
       </c>
       <c r="B54" t="n">
-        <v>28.23317189180648</v>
+        <v>28.83664196393002</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44927.0375</v>
+        <v>44927.03680555556</v>
       </c>
       <c r="B55" t="n">
-        <v>27.7701651319596</v>
+        <v>28.23317189180648</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44927.03819444445</v>
+        <v>44927.0375</v>
       </c>
       <c r="B56" t="n">
-        <v>27.68134731728469</v>
+        <v>27.7701651319596</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44927.03888888889</v>
+        <v>44927.03819444445</v>
       </c>
       <c r="B57" t="n">
-        <v>26.89173910050262</v>
+        <v>27.68134731728469</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44927.03958333333</v>
+        <v>44927.03888888889</v>
       </c>
       <c r="B58" t="n">
-        <v>26.91441409624356</v>
+        <v>26.89173910050262</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44927.04027777778</v>
+        <v>44927.03958333333</v>
       </c>
       <c r="B59" t="n">
-        <v>26.9325486103016</v>
+        <v>26.91441409624356</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44927.04097222222</v>
+        <v>44927.04027777778</v>
       </c>
       <c r="B60" t="n">
-        <v>27.62523032744188</v>
+        <v>26.9325486103016</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44927.04166666666</v>
+        <v>44927.04097222222</v>
       </c>
       <c r="B61" t="n">
-        <v>27.87222444858891</v>
+        <v>27.62523032744188</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44927.04236111111</v>
+        <v>44927.04166666666</v>
       </c>
       <c r="B62" t="n">
-        <v>27.95235853675539</v>
+        <v>27.87222444858891</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44927.04305555556</v>
+        <v>44927.04236111111</v>
       </c>
       <c r="B63" t="n">
-        <v>28.25313183718358</v>
+        <v>27.95235853675539</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44927.04375</v>
+        <v>44927.04305555556</v>
       </c>
       <c r="B64" t="n">
-        <v>27.32879345267415</v>
+        <v>28.25313183718358</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44927.04444444444</v>
+        <v>44927.04375</v>
       </c>
       <c r="B65" t="n">
-        <v>27.01432350098255</v>
+        <v>27.32879345267415</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44927.04513888889</v>
+        <v>44927.04444444444</v>
       </c>
       <c r="B66" t="n">
-        <v>27.32194617724405</v>
+        <v>27.01432350098255</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44927.04583333333</v>
+        <v>44927.04513888889</v>
       </c>
       <c r="B67" t="n">
-        <v>27.5131638133766</v>
+        <v>27.32194617724405</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44927.04652777778</v>
+        <v>44927.04583333333</v>
       </c>
       <c r="B68" t="n">
-        <v>27.67544649530771</v>
+        <v>27.5131638133766</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44927.04722222222</v>
+        <v>44927.04652777778</v>
       </c>
       <c r="B69" t="n">
-        <v>27.94282120875248</v>
+        <v>27.67544649530771</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44927.04791666667</v>
+        <v>44927.04722222222</v>
       </c>
       <c r="B70" t="n">
-        <v>27.53563060935599</v>
+        <v>27.94282120875248</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44927.04861111111</v>
+        <v>44927.04791666667</v>
       </c>
       <c r="B71" t="n">
-        <v>28.10263584028149</v>
+        <v>27.53563060935599</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44927.04930555556</v>
+        <v>44927.04861111111</v>
       </c>
       <c r="B72" t="n">
-        <v>27.75288094268243</v>
+        <v>28.10263584028149</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44927.05</v>
+        <v>44927.04930555556</v>
       </c>
       <c r="B73" t="n">
-        <v>28.29800157323643</v>
+        <v>27.75288094268243</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44927.05069444444</v>
+        <v>44927.05</v>
       </c>
       <c r="B74" t="n">
-        <v>28.27606907489467</v>
+        <v>28.29800157323643</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44927.05138888889</v>
+        <v>44927.05069444444</v>
       </c>
       <c r="B75" t="n">
-        <v>28.13872984760857</v>
+        <v>28.27606907489467</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44927.05208333334</v>
+        <v>44927.05138888889</v>
       </c>
       <c r="B76" t="n">
-        <v>27.3680332701365</v>
+        <v>28.13872984760857</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44927.05277777778</v>
+        <v>44927.05208333334</v>
       </c>
       <c r="B77" t="n">
-        <v>27.0832838491582</v>
+        <v>27.3680332701365</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44927.05347222222</v>
+        <v>44927.05277777778</v>
       </c>
       <c r="B78" t="n">
-        <v>27.32463094896473</v>
+        <v>27.0832838491582</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44927.05416666667</v>
+        <v>44927.05347222222</v>
       </c>
       <c r="B79" t="n">
-        <v>27.58810523110896</v>
+        <v>27.32463094896473</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44927.05486111111</v>
+        <v>44927.05416666667</v>
       </c>
       <c r="B80" t="n">
-        <v>27.61215317740779</v>
+        <v>27.58810523110896</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44927.05555555555</v>
+        <v>44927.05486111111</v>
       </c>
       <c r="B81" t="n">
-        <v>26.9633536684251</v>
+        <v>27.61215317740779</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44927.05625</v>
+        <v>44927.05555555555</v>
       </c>
       <c r="B82" t="n">
-        <v>27.37799576775215</v>
+        <v>26.9633536684251</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44927.05694444444</v>
+        <v>44927.05625</v>
       </c>
       <c r="B83" t="n">
-        <v>27.42953996150703</v>
+        <v>27.37799576775215</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44927.05763888889</v>
+        <v>44927.05694444444</v>
       </c>
       <c r="B84" t="n">
-        <v>27.39339426352562</v>
+        <v>27.42953996150703</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44927.05833333333</v>
+        <v>44927.05763888889</v>
       </c>
       <c r="B85" t="n">
-        <v>27.38739656815453</v>
+        <v>27.39339426352562</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44927.05902777778</v>
+        <v>44927.05833333333</v>
       </c>
       <c r="B86" t="n">
-        <v>26.74827564355668</v>
+        <v>27.38739656815453</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44927.05972222222</v>
+        <v>44927.05902777778</v>
       </c>
       <c r="B87" t="n">
-        <v>26.97305379166885</v>
+        <v>26.74827564355668</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44927.06041666667</v>
+        <v>44927.05972222222</v>
       </c>
       <c r="B88" t="n">
-        <v>26.54718933482774</v>
+        <v>26.97305379166885</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44927.06111111111</v>
+        <v>44927.06041666667</v>
       </c>
       <c r="B89" t="n">
-        <v>26.56173758918233</v>
+        <v>26.54718933482774</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44927.06180555555</v>
+        <v>44927.06111111111</v>
       </c>
       <c r="B90" t="n">
-        <v>27.28599097556846</v>
+        <v>26.56173758918233</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44927.0625</v>
+        <v>44927.06180555555</v>
       </c>
       <c r="B91" t="n">
-        <v>27.51233325784778</v>
+        <v>27.28599097556846</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44927.06319444445</v>
+        <v>44927.0625</v>
       </c>
       <c r="B92" t="n">
-        <v>27.73751907818668</v>
+        <v>27.51233325784778</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44927.06388888889</v>
+        <v>44927.06319444445</v>
       </c>
       <c r="B93" t="n">
-        <v>27.96106945889126</v>
+        <v>27.73751907818668</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44927.06458333333</v>
+        <v>44927.06388888889</v>
       </c>
       <c r="B94" t="n">
-        <v>28.27173879342293</v>
+        <v>27.96106945889126</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44927.06527777778</v>
+        <v>44927.06458333333</v>
       </c>
       <c r="B95" t="n">
-        <v>28.24221986363627</v>
+        <v>28.27173879342293</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44927.06597222222</v>
+        <v>44927.06527777778</v>
       </c>
       <c r="B96" t="n">
-        <v>28.37675109659774</v>
+        <v>28.24221986363627</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44927.06666666667</v>
+        <v>44927.06597222222</v>
       </c>
       <c r="B97" t="n">
-        <v>27.8925672016399</v>
+        <v>28.37675109659774</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44927.06736111111</v>
+        <v>44927.06666666667</v>
       </c>
       <c r="B98" t="n">
-        <v>27.96953803151355</v>
+        <v>27.8925672016399</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44927.06805555556</v>
+        <v>44927.06736111111</v>
       </c>
       <c r="B99" t="n">
-        <v>27.39509678351248</v>
+        <v>27.96953803151355</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44927.06875</v>
+        <v>44927.06805555556</v>
       </c>
       <c r="B100" t="n">
-        <v>27.104746052341</v>
+        <v>27.39509678351248</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44927.06944444445</v>
+        <v>44927.06875</v>
       </c>
       <c r="B101" t="n">
-        <v>26.97420115930693</v>
+        <v>27.104746052341</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44927.07013888889</v>
+        <v>44927.06944444445</v>
       </c>
       <c r="B102" t="n">
-        <v>27.90821837367589</v>
+        <v>26.97420115930693</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44927.07083333333</v>
+        <v>44927.07013888889</v>
       </c>
       <c r="B103" t="n">
-        <v>28.11096550936781</v>
+        <v>27.90821837367589</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44927.07152777778</v>
+        <v>44927.07083333333</v>
       </c>
       <c r="B104" t="n">
-        <v>27.89587721103502</v>
+        <v>28.11096550936781</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44927.07222222222</v>
+        <v>44927.07152777778</v>
       </c>
       <c r="B105" t="n">
-        <v>26.78264168040934</v>
+        <v>27.89587721103502</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44927.07291666666</v>
+        <v>44927.07222222222</v>
       </c>
       <c r="B106" t="n">
-        <v>27.09895576396157</v>
+        <v>26.78264168040934</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44927.07361111111</v>
+        <v>44927.07291666666</v>
       </c>
       <c r="B107" t="n">
-        <v>26.16546015253122</v>
+        <v>27.09895576396157</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44927.07430555556</v>
+        <v>44927.07361111111</v>
       </c>
       <c r="B108" t="n">
-        <v>26.11199422682131</v>
+        <v>26.16546015253122</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44927.075</v>
+        <v>44927.07430555556</v>
       </c>
       <c r="B109" t="n">
-        <v>26.65742061477805</v>
+        <v>26.11199422682131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44927.07569444444</v>
+        <v>44927.075</v>
       </c>
       <c r="B110" t="n">
-        <v>26.28475625439242</v>
+        <v>26.65742061477805</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44927.07638888889</v>
+        <v>44927.07569444444</v>
       </c>
       <c r="B111" t="n">
-        <v>26.1785610868729</v>
+        <v>26.28475625439242</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44927.07708333333</v>
+        <v>44927.07638888889</v>
       </c>
       <c r="B112" t="n">
-        <v>25.42156496992414</v>
+        <v>26.1785610868729</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44927.07777777778</v>
+        <v>44927.07708333333</v>
       </c>
       <c r="B113" t="n">
-        <v>25.12537155019544</v>
+        <v>25.42156496992414</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44927.07847222222</v>
+        <v>44927.07777777778</v>
       </c>
       <c r="B114" t="n">
-        <v>25.20919424698344</v>
+        <v>25.12537155019544</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44927.07916666667</v>
+        <v>44927.07847222222</v>
       </c>
       <c r="B115" t="n">
-        <v>26.1205535265696</v>
+        <v>25.20919424698344</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44927.07986111111</v>
+        <v>44927.07916666667</v>
       </c>
       <c r="B116" t="n">
-        <v>26.71225125271221</v>
+        <v>26.1205535265696</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44927.08055555556</v>
+        <v>44927.07986111111</v>
       </c>
       <c r="B117" t="n">
-        <v>26.17527148897555</v>
+        <v>26.71225125271221</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44927.08125</v>
+        <v>44927.08055555556</v>
       </c>
       <c r="B118" t="n">
-        <v>26.48798500144968</v>
+        <v>26.17527148897555</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44927.08194444444</v>
+        <v>44927.08125</v>
       </c>
       <c r="B119" t="n">
-        <v>26.40006087919931</v>
+        <v>26.48798500144968</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44927.08263888889</v>
+        <v>44927.08194444444</v>
       </c>
       <c r="B120" t="n">
-        <v>26.28355351987226</v>
+        <v>26.40006087919931</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44927.08333333334</v>
+        <v>44927.08263888889</v>
       </c>
       <c r="B121" t="n">
-        <v>26.72791890445781</v>
+        <v>26.28355351987226</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44927.08402777778</v>
+        <v>44927.08333333334</v>
       </c>
       <c r="B122" t="n">
-        <v>25.3073934319732</v>
+        <v>26.72791890445781</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44927.08472222222</v>
+        <v>44927.08402777778</v>
       </c>
       <c r="B123" t="n">
-        <v>25.71980440812635</v>
+        <v>25.3073934319732</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44927.08541666667</v>
+        <v>44927.08472222222</v>
       </c>
       <c r="B124" t="n">
-        <v>26.65350938958175</v>
+        <v>25.71980440812635</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44927.08611111111</v>
+        <v>44927.08541666667</v>
       </c>
       <c r="B125" t="n">
-        <v>26.61793762471953</v>
+        <v>26.65350938958175</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44927.08680555555</v>
+        <v>44927.08611111111</v>
       </c>
       <c r="B126" t="n">
-        <v>26.05720111146639</v>
+        <v>26.61793762471953</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44927.0875</v>
+        <v>44927.08680555555</v>
       </c>
       <c r="B127" t="n">
-        <v>26.33261669016613</v>
+        <v>26.05720111146639</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44927.08819444444</v>
+        <v>44927.0875</v>
       </c>
       <c r="B128" t="n">
-        <v>25.94687873522842</v>
+        <v>26.33261669016613</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44927.08888888889</v>
+        <v>44927.08819444444</v>
       </c>
       <c r="B129" t="n">
-        <v>27.31053038991973</v>
+        <v>25.94687873522842</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44927.08958333333</v>
+        <v>44927.08888888889</v>
       </c>
       <c r="B130" t="n">
-        <v>27.04341385956312</v>
+        <v>27.31053038991973</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44927.09027777778</v>
+        <v>44927.08958333333</v>
       </c>
       <c r="B131" t="n">
-        <v>27.9274286752893</v>
+        <v>27.04341385956312</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44927.09097222222</v>
+        <v>44927.09027777778</v>
       </c>
       <c r="B132" t="n">
-        <v>27.01214929628295</v>
+        <v>27.9274286752893</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44927.09166666667</v>
+        <v>44927.09097222222</v>
       </c>
       <c r="B133" t="n">
-        <v>26.22697791423132</v>
+        <v>27.01214929628295</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44927.09236111111</v>
+        <v>44927.09166666667</v>
       </c>
       <c r="B134" t="n">
-        <v>25.62926227038964</v>
+        <v>26.22697791423132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44927.09305555555</v>
+        <v>44927.09236111111</v>
       </c>
       <c r="B135" t="n">
-        <v>24.60809318025493</v>
+        <v>25.62926227038964</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44927.09375</v>
+        <v>44927.09305555555</v>
       </c>
       <c r="B136" t="n">
-        <v>26.56117846323329</v>
+        <v>24.60809318025493</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44927.09444444445</v>
+        <v>44927.09375</v>
       </c>
       <c r="B137" t="n">
-        <v>26.13295738815276</v>
+        <v>26.56117846323329</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44927.09513888889</v>
+        <v>44927.09444444445</v>
       </c>
       <c r="B138" t="n">
-        <v>26.07836902353384</v>
+        <v>26.13295738815276</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44927.09583333333</v>
+        <v>44927.09513888889</v>
       </c>
       <c r="B139" t="n">
-        <v>25.45162025073659</v>
+        <v>26.07836902353384</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927.09652777778</v>
+        <v>44927.09583333333</v>
       </c>
       <c r="B140" t="n">
-        <v>25.17535230194069</v>
+        <v>25.45162025073659</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44927.09722222222</v>
+        <v>44927.09652777778</v>
       </c>
       <c r="B141" t="n">
-        <v>25.57955298918461</v>
+        <v>25.17535230194069</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44927.09791666667</v>
+        <v>44927.09722222222</v>
       </c>
       <c r="B142" t="n">
-        <v>25.05540720958731</v>
+        <v>25.57955298918461</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44927.09861111111</v>
+        <v>44927.09791666667</v>
       </c>
       <c r="B143" t="n">
-        <v>25.68008479955165</v>
+        <v>25.05540720958731</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44927.09930555556</v>
+        <v>44927.09861111111</v>
       </c>
       <c r="B144" t="n">
-        <v>25.1277089348451</v>
+        <v>25.68008479955165</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44927.1</v>
+        <v>44927.09930555556</v>
       </c>
       <c r="B145" t="n">
-        <v>25.81170064225351</v>
+        <v>25.1277089348451</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44927.10069444445</v>
+        <v>44927.1</v>
       </c>
       <c r="B146" t="n">
-        <v>25.31968181453774</v>
+        <v>25.81170064225351</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44927.10138888889</v>
+        <v>44927.10069444445</v>
       </c>
       <c r="B147" t="n">
-        <v>25.78629505874123</v>
+        <v>25.31968181453774</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44927.10208333333</v>
+        <v>44927.10138888889</v>
       </c>
       <c r="B148" t="n">
-        <v>26.10100536018713</v>
+        <v>25.78629505874123</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44927.10277777778</v>
+        <v>44927.10208333333</v>
       </c>
       <c r="B149" t="n">
-        <v>26.30779464909496</v>
+        <v>26.10100536018713</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44927.10347222222</v>
+        <v>44927.10277777778</v>
       </c>
       <c r="B150" t="n">
-        <v>25.81370429684603</v>
+        <v>26.30779464909496</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44927.10416666666</v>
+        <v>44927.10347222222</v>
       </c>
       <c r="B151" t="n">
-        <v>25.18415443550785</v>
+        <v>25.81370429684603</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44927.10486111111</v>
+        <v>44927.10416666666</v>
       </c>
       <c r="B152" t="n">
-        <v>25.54868461113774</v>
+        <v>25.18415443550785</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44927.10555555556</v>
+        <v>44927.10486111111</v>
       </c>
       <c r="B153" t="n">
-        <v>26.10077101650397</v>
+        <v>25.54868461113774</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44927.10625</v>
+        <v>44927.10555555556</v>
       </c>
       <c r="B154" t="n">
-        <v>26.87040460061739</v>
+        <v>26.10077101650397</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44927.10694444444</v>
+        <v>44927.10625</v>
       </c>
       <c r="B155" t="n">
-        <v>26.63612572320241</v>
+        <v>26.87040460061739</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44927.10763888889</v>
+        <v>44927.10694444444</v>
       </c>
       <c r="B156" t="n">
-        <v>26.89145040764611</v>
+        <v>26.63612572320241</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44927.10833333333</v>
+        <v>44927.10763888889</v>
       </c>
       <c r="B157" t="n">
-        <v>26.41660186961733</v>
+        <v>26.89145040764611</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44927.10902777778</v>
+        <v>44927.10833333333</v>
       </c>
       <c r="B158" t="n">
-        <v>26.43958317385425</v>
+        <v>26.41660186961733</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44927.10972222222</v>
+        <v>44927.10902777778</v>
       </c>
       <c r="B159" t="n">
-        <v>27.1273652913173</v>
+        <v>26.43958317385425</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44927.11041666667</v>
+        <v>44927.10972222222</v>
       </c>
       <c r="B160" t="n">
-        <v>27.67966583784587</v>
+        <v>27.1273652913173</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44927.11111111111</v>
+        <v>44927.11041666667</v>
       </c>
       <c r="B161" t="n">
-        <v>26.90074215721537</v>
+        <v>27.67966583784587</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44927.11180555556</v>
+        <v>44927.11111111111</v>
       </c>
       <c r="B162" t="n">
-        <v>26.84540107847751</v>
+        <v>26.90074215721537</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44927.1125</v>
+        <v>44927.11180555556</v>
       </c>
       <c r="B163" t="n">
-        <v>26.67120934466551</v>
+        <v>26.84540107847751</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44927.11319444444</v>
+        <v>44927.1125</v>
       </c>
       <c r="B164" t="n">
-        <v>25.85593712765547</v>
+        <v>26.67120934466551</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44927.11388888889</v>
+        <v>44927.11319444444</v>
       </c>
       <c r="B165" t="n">
-        <v>25.68330291420968</v>
+        <v>25.85593712765547</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44927.11458333334</v>
+        <v>44927.11388888889</v>
       </c>
       <c r="B166" t="n">
-        <v>25.14223630547226</v>
+        <v>25.68330291420968</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44927.11527777778</v>
+        <v>44927.11458333334</v>
       </c>
       <c r="B167" t="n">
-        <v>25.12359492072777</v>
+        <v>25.14223630547226</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44927.11597222222</v>
+        <v>44927.11527777778</v>
       </c>
       <c r="B168" t="n">
-        <v>24.77373440330514</v>
+        <v>25.12359492072777</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44927.11666666667</v>
+        <v>44927.11597222222</v>
       </c>
       <c r="B169" t="n">
-        <v>25.42794340487957</v>
+        <v>24.77373440330514</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44927.11736111111</v>
+        <v>44927.11666666667</v>
       </c>
       <c r="B170" t="n">
-        <v>25.89217301578588</v>
+        <v>25.42794340487957</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44927.11805555555</v>
+        <v>44927.11736111111</v>
       </c>
       <c r="B171" t="n">
-        <v>26.34394635650458</v>
+        <v>25.89217301578588</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44927.11875</v>
+        <v>44927.11805555555</v>
       </c>
       <c r="B172" t="n">
-        <v>26.26145437603255</v>
+        <v>26.34394635650458</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44927.11944444444</v>
+        <v>44927.11875</v>
       </c>
       <c r="B173" t="n">
-        <v>25.84661883493932</v>
+        <v>26.26145437603255</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44927.12013888889</v>
+        <v>44927.11944444444</v>
       </c>
       <c r="B174" t="n">
-        <v>24.9626195724046</v>
+        <v>25.84661883493932</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44927.12083333333</v>
+        <v>44927.12013888889</v>
       </c>
       <c r="B175" t="n">
-        <v>25.82328692132799</v>
+        <v>24.9626195724046</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44927.12152777778</v>
+        <v>44927.12083333333</v>
       </c>
       <c r="B176" t="n">
-        <v>24.94678411426565</v>
+        <v>25.82328692132799</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44927.12222222222</v>
+        <v>44927.12152777778</v>
       </c>
       <c r="B177" t="n">
-        <v>25.39026364666893</v>
+        <v>24.94678411426565</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44927.12291666667</v>
+        <v>44927.12222222222</v>
       </c>
       <c r="B178" t="n">
-        <v>25.38730411427251</v>
+        <v>25.39026364666893</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44927.12361111111</v>
+        <v>44927.12291666667</v>
       </c>
       <c r="B179" t="n">
-        <v>26.04895582897095</v>
+        <v>25.38730411427251</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44927.12430555555</v>
+        <v>44927.12361111111</v>
       </c>
       <c r="B180" t="n">
-        <v>25.882538699114</v>
+        <v>26.04895582897095</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44927.125</v>
+        <v>44927.12430555555</v>
       </c>
       <c r="B181" t="n">
-        <v>25.75115981007344</v>
+        <v>25.882538699114</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44927.12569444445</v>
+        <v>44927.125</v>
       </c>
       <c r="B182" t="n">
-        <v>25.86103078331378</v>
+        <v>25.75115981007344</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44927.12638888889</v>
+        <v>44927.12569444445</v>
       </c>
       <c r="B183" t="n">
-        <v>25.35344749541374</v>
+        <v>25.86103078331378</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44927.12708333333</v>
+        <v>44927.12638888889</v>
       </c>
       <c r="B184" t="n">
-        <v>24.74454077913617</v>
+        <v>25.35344749541374</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44927.12777777778</v>
+        <v>44927.12708333333</v>
       </c>
       <c r="B185" t="n">
-        <v>24.16932821855159</v>
+        <v>24.74454077913617</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44927.12847222222</v>
+        <v>44927.12777777778</v>
       </c>
       <c r="B186" t="n">
-        <v>24.69147525390373</v>
+        <v>24.16932821855159</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44927.12916666667</v>
+        <v>44927.12847222222</v>
       </c>
       <c r="B187" t="n">
-        <v>26.00390068516272</v>
+        <v>24.69147525390373</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44927.12986111111</v>
+        <v>44927.12916666667</v>
       </c>
       <c r="B188" t="n">
-        <v>25.50629359453781</v>
+        <v>26.00390068516272</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44927.13055555556</v>
+        <v>44927.12986111111</v>
       </c>
       <c r="B189" t="n">
-        <v>26.68555138695469</v>
+        <v>25.50629359453781</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44927.13125</v>
+        <v>44927.13055555556</v>
       </c>
       <c r="B190" t="n">
-        <v>25.34417207583856</v>
+        <v>26.68555138695469</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44927.13194444445</v>
+        <v>44927.13125</v>
       </c>
       <c r="B191" t="n">
-        <v>25.49271399139446</v>
+        <v>25.34417207583856</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44927.13263888889</v>
+        <v>44927.13194444445</v>
       </c>
       <c r="B192" t="n">
-        <v>24.89047768451827</v>
+        <v>25.49271399139446</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44927.13333333333</v>
+        <v>44927.13263888889</v>
       </c>
       <c r="B193" t="n">
-        <v>25.17359252290868</v>
+        <v>24.89047768451827</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44927.13402777778</v>
+        <v>44927.13333333333</v>
       </c>
       <c r="B194" t="n">
-        <v>26.49874734791212</v>
+        <v>25.17359252290868</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44927.13472222222</v>
+        <v>44927.13402777778</v>
       </c>
       <c r="B195" t="n">
-        <v>26.76926340206098</v>
+        <v>26.49874734791212</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44927.13541666666</v>
+        <v>44927.13472222222</v>
       </c>
       <c r="B196" t="n">
-        <v>27.12218947265512</v>
+        <v>26.76926340206098</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44927.13611111111</v>
+        <v>44927.13541666666</v>
       </c>
       <c r="B197" t="n">
-        <v>26.20972784073617</v>
+        <v>27.12218947265512</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44927.13680555556</v>
+        <v>44927.13611111111</v>
       </c>
       <c r="B198" t="n">
-        <v>25.80264064501386</v>
+        <v>26.20972784073617</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44927.1375</v>
+        <v>44927.13680555556</v>
       </c>
       <c r="B199" t="n">
-        <v>25.92307000412879</v>
+        <v>25.80264064501386</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44927.13819444444</v>
+        <v>44927.1375</v>
       </c>
       <c r="B200" t="n">
-        <v>25.61607907573564</v>
+        <v>25.92307000412879</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44927.13888888889</v>
+        <v>44927.13819444444</v>
       </c>
       <c r="B201" t="n">
-        <v>26.15990833355644</v>
+        <v>25.61607907573564</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44927.13958333333</v>
+        <v>44927.13888888889</v>
       </c>
       <c r="B202" t="n">
-        <v>26.06730102863581</v>
+        <v>26.15990833355644</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44927.14027777778</v>
+        <v>44927.13958333333</v>
       </c>
       <c r="B203" t="n">
-        <v>26.18442030694346</v>
+        <v>26.06730102863581</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44927.14097222222</v>
+        <v>44927.14027777778</v>
       </c>
       <c r="B204" t="n">
-        <v>26.1435321241978</v>
+        <v>26.18442030694346</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44927.14166666667</v>
+        <v>44927.14097222222</v>
       </c>
       <c r="B205" t="n">
-        <v>26.86782438589079</v>
+        <v>26.1435321241978</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44927.14236111111</v>
+        <v>44927.14166666667</v>
       </c>
       <c r="B206" t="n">
-        <v>26.50559201425562</v>
+        <v>26.86782438589079</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44927.14305555556</v>
+        <v>44927.14236111111</v>
       </c>
       <c r="B207" t="n">
-        <v>26.12463950345111</v>
+        <v>26.50559201425562</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44927.14375</v>
+        <v>44927.14305555556</v>
       </c>
       <c r="B208" t="n">
-        <v>26.0125690953311</v>
+        <v>26.12463950345111</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44927.14444444444</v>
+        <v>44927.14375</v>
       </c>
       <c r="B209" t="n">
-        <v>26.59719625018142</v>
+        <v>26.0125690953311</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44927.14513888889</v>
+        <v>44927.14444444444</v>
       </c>
       <c r="B210" t="n">
-        <v>26.71258126819735</v>
+        <v>26.59719625018142</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44927.14583333334</v>
+        <v>44927.14513888889</v>
       </c>
       <c r="B211" t="n">
-        <v>27.60210501501069</v>
+        <v>26.71258126819735</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44927.14652777778</v>
+        <v>44927.14583333334</v>
       </c>
       <c r="B212" t="n">
-        <v>27.69568882158241</v>
+        <v>27.60210501501069</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44927.14722222222</v>
+        <v>44927.14652777778</v>
       </c>
       <c r="B213" t="n">
-        <v>26.52761813426836</v>
+        <v>27.69568882158241</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44927.14791666667</v>
+        <v>44927.14722222222</v>
       </c>
       <c r="B214" t="n">
-        <v>26.8797575891322</v>
+        <v>26.52761813426836</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44927.14861111111</v>
+        <v>44927.14791666667</v>
       </c>
       <c r="B215" t="n">
-        <v>25.53205183723605</v>
+        <v>26.8797575891322</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44927.14930555555</v>
+        <v>44927.14861111111</v>
       </c>
       <c r="B216" t="n">
-        <v>26.38002691249283</v>
+        <v>25.53205183723605</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44927.15</v>
+        <v>44927.14930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>25.54153624861679</v>
+        <v>26.38002691249283</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44927.15069444444</v>
+        <v>44927.15</v>
       </c>
       <c r="B218" t="n">
-        <v>26.91573148288866</v>
+        <v>25.54153624861679</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44927.15138888889</v>
+        <v>44927.15069444444</v>
       </c>
       <c r="B219" t="n">
-        <v>26.49949164562265</v>
+        <v>26.91573148288866</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44927.15208333333</v>
+        <v>44927.15138888889</v>
       </c>
       <c r="B220" t="n">
-        <v>26.30207887884442</v>
+        <v>26.49949164562265</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44927.15277777778</v>
+        <v>44927.15208333333</v>
       </c>
       <c r="B221" t="n">
-        <v>26.80634846541801</v>
+        <v>26.30207887884442</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44927.15347222222</v>
+        <v>44927.15277777778</v>
       </c>
       <c r="B222" t="n">
-        <v>27.13700156390868</v>
+        <v>26.80634846541801</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44927.15416666667</v>
+        <v>44927.15347222222</v>
       </c>
       <c r="B223" t="n">
-        <v>26.30640303888722</v>
+        <v>27.13700156390868</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44927.15486111111</v>
+        <v>44927.15416666667</v>
       </c>
       <c r="B224" t="n">
-        <v>26.63866615996945</v>
+        <v>26.30640303888722</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44927.15555555555</v>
+        <v>44927.15486111111</v>
       </c>
       <c r="B225" t="n">
-        <v>25.58712821362833</v>
+        <v>26.63866615996945</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44927.15625</v>
+        <v>44927.15555555555</v>
       </c>
       <c r="B226" t="n">
-        <v>25.88212578896874</v>
+        <v>25.58712821362833</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44927.15694444445</v>
+        <v>44927.15625</v>
       </c>
       <c r="B227" t="n">
-        <v>25.40972024532542</v>
+        <v>25.88212578896874</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44927.15763888889</v>
+        <v>44927.15694444445</v>
       </c>
       <c r="B228" t="n">
-        <v>25.8725814879042</v>
+        <v>25.40972024532542</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44927.15833333333</v>
+        <v>44927.15763888889</v>
       </c>
       <c r="B229" t="n">
-        <v>26.11546021927146</v>
+        <v>25.8725814879042</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44927.15902777778</v>
+        <v>44927.15833333333</v>
       </c>
       <c r="B230" t="n">
-        <v>25.82910968937814</v>
+        <v>26.11546021927146</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44927.15972222222</v>
+        <v>44927.15902777778</v>
       </c>
       <c r="B231" t="n">
-        <v>25.69994131038893</v>
+        <v>25.82910968937814</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44927.16041666667</v>
+        <v>44927.15972222222</v>
       </c>
       <c r="B232" t="n">
-        <v>26.2103929146858</v>
+        <v>25.69994131038893</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44927.16111111111</v>
+        <v>44927.16041666667</v>
       </c>
       <c r="B233" t="n">
-        <v>25.48800099191504</v>
+        <v>26.2103929146858</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44927.16180555556</v>
+        <v>44927.16111111111</v>
       </c>
       <c r="B234" t="n">
-        <v>25.05421209069856</v>
+        <v>25.48800099191504</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44927.1625</v>
+        <v>44927.16180555556</v>
       </c>
       <c r="B235" t="n">
-        <v>25.26459305757762</v>
+        <v>25.05421209069856</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44927.16319444445</v>
+        <v>44927.1625</v>
       </c>
       <c r="B236" t="n">
-        <v>25.64405501865655</v>
+        <v>25.26459305757762</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44927.16388888889</v>
+        <v>44927.16319444445</v>
       </c>
       <c r="B237" t="n">
-        <v>25.83845115973472</v>
+        <v>25.64405501865655</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44927.16458333333</v>
+        <v>44927.16388888889</v>
       </c>
       <c r="B238" t="n">
-        <v>25.61263513342581</v>
+        <v>25.83845115973472</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44927.16527777778</v>
+        <v>44927.16458333333</v>
       </c>
       <c r="B239" t="n">
-        <v>25.48896889253356</v>
+        <v>25.61263513342581</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44927.16597222222</v>
+        <v>44927.16527777778</v>
       </c>
       <c r="B240" t="n">
-        <v>24.71929215456767</v>
+        <v>25.48896889253356</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44927.16666666666</v>
+        <v>44927.16597222222</v>
       </c>
       <c r="B241" t="n">
-        <v>24.66930778841284</v>
+        <v>24.71929215456767</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44927.16736111111</v>
+        <v>44927.16666666666</v>
       </c>
       <c r="B242" t="n">
-        <v>24.4926360983262</v>
+        <v>24.66930778841284</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44927.16805555556</v>
+        <v>44927.16736111111</v>
       </c>
       <c r="B243" t="n">
-        <v>25.49722119816109</v>
+        <v>24.4926360983262</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44927.16875</v>
+        <v>44927.16805555556</v>
       </c>
       <c r="B244" t="n">
-        <v>25.50660329027296</v>
+        <v>25.49722119816109</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44927.16944444444</v>
+        <v>44927.16875</v>
       </c>
       <c r="B245" t="n">
-        <v>25.79089547013828</v>
+        <v>25.50660329027296</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44927.17013888889</v>
+        <v>44927.16944444444</v>
       </c>
       <c r="B246" t="n">
-        <v>24.93492573604497</v>
+        <v>25.79089547013828</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44927.17083333333</v>
+        <v>44927.17013888889</v>
       </c>
       <c r="B247" t="n">
-        <v>24.90762645366555</v>
+        <v>24.93492573604497</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44927.17152777778</v>
+        <v>44927.17083333333</v>
       </c>
       <c r="B248" t="n">
-        <v>24.62039330591546</v>
+        <v>24.90762645366555</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44927.17222222222</v>
+        <v>44927.17152777778</v>
       </c>
       <c r="B249" t="n">
-        <v>24.97058597578505</v>
+        <v>24.62039330591546</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44927.17291666667</v>
+        <v>44927.17222222222</v>
       </c>
       <c r="B250" t="n">
-        <v>24.97301618910717</v>
+        <v>24.97058597578505</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44927.17361111111</v>
+        <v>44927.17291666667</v>
       </c>
       <c r="B251" t="n">
-        <v>25.01978311863407</v>
+        <v>24.97301618910717</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44927.17430555556</v>
+        <v>44927.17361111111</v>
       </c>
       <c r="B252" t="n">
-        <v>25.10542755242637</v>
+        <v>25.01978311863407</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44927.175</v>
+        <v>44927.17430555556</v>
       </c>
       <c r="B253" t="n">
-        <v>24.38900982660034</v>
+        <v>25.10542755242637</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44927.17569444444</v>
+        <v>44927.175</v>
       </c>
       <c r="B254" t="n">
-        <v>25.13318208290642</v>
+        <v>24.38900982660034</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44927.17638888889</v>
+        <v>44927.17569444444</v>
       </c>
       <c r="B255" t="n">
-        <v>25.27977400323546</v>
+        <v>25.13318208290642</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44927.17708333334</v>
+        <v>44927.17638888889</v>
       </c>
       <c r="B256" t="n">
-        <v>25.74461036275244</v>
+        <v>25.27977400323546</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44927.17777777778</v>
+        <v>44927.17708333334</v>
       </c>
       <c r="B257" t="n">
-        <v>24.7679248465227</v>
+        <v>25.74461036275244</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44927.17847222222</v>
+        <v>44927.17777777778</v>
       </c>
       <c r="B258" t="n">
-        <v>24.40531581661673</v>
+        <v>24.7679248465227</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44927.17916666667</v>
+        <v>44927.17847222222</v>
       </c>
       <c r="B259" t="n">
-        <v>24.26210460084086</v>
+        <v>24.40531581661673</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44927.17986111111</v>
+        <v>44927.17916666667</v>
       </c>
       <c r="B260" t="n">
-        <v>25.16487768631686</v>
+        <v>24.26210460084086</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44927.18055555555</v>
+        <v>44927.17986111111</v>
       </c>
       <c r="B261" t="n">
-        <v>24.7980292588807</v>
+        <v>25.16487768631686</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44927.18125</v>
+        <v>44927.18055555555</v>
       </c>
       <c r="B262" t="n">
-        <v>26.55791893442316</v>
+        <v>24.7980292588807</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44927.18194444444</v>
+        <v>44927.18125</v>
       </c>
       <c r="B263" t="n">
-        <v>25.75329018041363</v>
+        <v>26.55791893442316</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44927.18263888889</v>
+        <v>44927.18194444444</v>
       </c>
       <c r="B264" t="n">
-        <v>24.94169525834176</v>
+        <v>25.75329018041363</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44927.18333333333</v>
+        <v>44927.18263888889</v>
       </c>
       <c r="B265" t="n">
-        <v>24.89582192362182</v>
+        <v>24.94169525834176</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44927.18402777778</v>
+        <v>44927.18333333333</v>
       </c>
       <c r="B266" t="n">
-        <v>24.42042798229912</v>
+        <v>24.89582192362182</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44927.18472222222</v>
+        <v>44927.18402777778</v>
       </c>
       <c r="B267" t="n">
-        <v>24.53735737577808</v>
+        <v>24.42042798229912</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44927.18541666667</v>
+        <v>44927.18472222222</v>
       </c>
       <c r="B268" t="n">
-        <v>25.0134019330643</v>
+        <v>24.53735737577808</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44927.18611111111</v>
+        <v>44927.18541666667</v>
       </c>
       <c r="B269" t="n">
-        <v>25.559541889313</v>
+        <v>25.0134019330643</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44927.18680555555</v>
+        <v>44927.18611111111</v>
       </c>
       <c r="B270" t="n">
-        <v>25.04728962708678</v>
+        <v>25.559541889313</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44927.1875</v>
+        <v>44927.18680555555</v>
       </c>
       <c r="B271" t="n">
-        <v>25.86514491166781</v>
+        <v>25.04728962708678</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44927.18819444445</v>
+        <v>44927.1875</v>
       </c>
       <c r="B272" t="n">
-        <v>25.3288406833226</v>
+        <v>25.86514491166781</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44927.18888888889</v>
+        <v>44927.18819444445</v>
       </c>
       <c r="B273" t="n">
-        <v>25.91883272404972</v>
+        <v>25.3288406833226</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44927.18958333333</v>
+        <v>44927.18888888889</v>
       </c>
       <c r="B274" t="n">
-        <v>25.65954342920683</v>
+        <v>25.91883272404972</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44927.19027777778</v>
+        <v>44927.18958333333</v>
       </c>
       <c r="B275" t="n">
-        <v>25.332443780159</v>
+        <v>25.65954342920683</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44927.19097222222</v>
+        <v>44927.19027777778</v>
       </c>
       <c r="B276" t="n">
-        <v>26.05651255836508</v>
+        <v>25.332443780159</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44927.19166666667</v>
+        <v>44927.19097222222</v>
       </c>
       <c r="B277" t="n">
-        <v>25.11209910756511</v>
+        <v>26.05651255836508</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44927.19236111111</v>
+        <v>44927.19166666667</v>
       </c>
       <c r="B278" t="n">
-        <v>24.38259419765744</v>
+        <v>25.11209910756511</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44927.19305555556</v>
+        <v>44927.19236111111</v>
       </c>
       <c r="B279" t="n">
-        <v>24.87051957245517</v>
+        <v>24.38259419765744</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44927.19375</v>
+        <v>44927.19305555556</v>
       </c>
       <c r="B280" t="n">
-        <v>24.9323185586146</v>
+        <v>24.87051957245517</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44927.19444444445</v>
+        <v>44927.19375</v>
       </c>
       <c r="B281" t="n">
-        <v>25.62441551565308</v>
+        <v>24.9323185586146</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44927.19513888889</v>
+        <v>44927.19444444445</v>
       </c>
       <c r="B282" t="n">
-        <v>25.28448346157982</v>
+        <v>25.62441551565308</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44927.19583333333</v>
+        <v>44927.19513888889</v>
       </c>
       <c r="B283" t="n">
-        <v>26.00102266731978</v>
+        <v>25.28448346157982</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44927.19652777778</v>
+        <v>44927.19583333333</v>
       </c>
       <c r="B284" t="n">
-        <v>25.3665236694115</v>
+        <v>26.00102266731978</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44927.19722222222</v>
+        <v>44927.19652777778</v>
       </c>
       <c r="B285" t="n">
-        <v>25.03800660686562</v>
+        <v>25.3665236694115</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44927.19791666666</v>
+        <v>44927.19722222222</v>
       </c>
       <c r="B286" t="n">
-        <v>24.53294046549152</v>
+        <v>25.03800660686562</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44927.19861111111</v>
+        <v>44927.19791666666</v>
       </c>
       <c r="B287" t="n">
-        <v>25.49390224399999</v>
+        <v>24.53294046549152</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44927.19930555556</v>
+        <v>44927.19861111111</v>
       </c>
       <c r="B288" t="n">
-        <v>25.45874086778873</v>
+        <v>25.49390224399999</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44927.2</v>
+        <v>44927.19930555556</v>
       </c>
       <c r="B289" t="n">
-        <v>26.52765490573936</v>
+        <v>25.45874086778873</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44927.20069444444</v>
+        <v>44927.2</v>
       </c>
       <c r="B290" t="n">
-        <v>26.50022640981541</v>
+        <v>26.52765490573936</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44927.20138888889</v>
+        <v>44927.20069444444</v>
       </c>
       <c r="B291" t="n">
-        <v>26.34340987600784</v>
+        <v>26.50022640981541</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44927.20208333333</v>
+        <v>44927.20138888889</v>
       </c>
       <c r="B292" t="n">
-        <v>25.52841324140228</v>
+        <v>26.34340987600784</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44927.20277777778</v>
+        <v>44927.20208333333</v>
       </c>
       <c r="B293" t="n">
-        <v>24.8619803831963</v>
+        <v>25.52841324140228</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44927.20347222222</v>
+        <v>44927.20277777778</v>
       </c>
       <c r="B294" t="n">
-        <v>24.70410764862276</v>
+        <v>24.8619803831963</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44927.20416666667</v>
+        <v>44927.20347222222</v>
       </c>
       <c r="B295" t="n">
-        <v>24.63922262565758</v>
+        <v>24.70410764862276</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44927.20486111111</v>
+        <v>44927.20416666667</v>
       </c>
       <c r="B296" t="n">
-        <v>24.71598202436537</v>
+        <v>24.63922262565758</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44927.20555555556</v>
+        <v>44927.20486111111</v>
       </c>
       <c r="B297" t="n">
-        <v>24.86740761157887</v>
+        <v>24.71598202436537</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44927.20625</v>
+        <v>44927.20555555556</v>
       </c>
       <c r="B298" t="n">
-        <v>24.87276780383505</v>
+        <v>24.86740761157887</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44927.20694444444</v>
+        <v>44927.20625</v>
       </c>
       <c r="B299" t="n">
-        <v>25.10304565564296</v>
+        <v>24.87276780383505</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44927.20763888889</v>
+        <v>44927.20694444444</v>
       </c>
       <c r="B300" t="n">
-        <v>25.40739037591668</v>
+        <v>25.10304565564296</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44927.20833333334</v>
+        <v>44927.20763888889</v>
       </c>
       <c r="B301" t="n">
-        <v>24.87844227011108</v>
+        <v>25.40739037591668</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44927.20902777778</v>
+        <v>44927.20833333334</v>
       </c>
       <c r="B302" t="n">
-        <v>25.24424807787424</v>
+        <v>24.87844227011108</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44927.20972222222</v>
+        <v>44927.20902777778</v>
       </c>
       <c r="B303" t="n">
-        <v>24.22958336394393</v>
+        <v>25.24424807787424</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44927.21041666667</v>
+        <v>44927.20972222222</v>
       </c>
       <c r="B304" t="n">
-        <v>25.56026737825146</v>
+        <v>24.22958336394393</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44927.21111111111</v>
+        <v>44927.21041666667</v>
       </c>
       <c r="B305" t="n">
-        <v>26.51664814336161</v>
+        <v>25.56026737825146</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44927.21180555555</v>
+        <v>44927.21111111111</v>
       </c>
       <c r="B306" t="n">
-        <v>25.80054752884514</v>
+        <v>26.51664814336161</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44927.2125</v>
+        <v>44927.21180555555</v>
       </c>
       <c r="B307" t="n">
-        <v>25.5822802491907</v>
+        <v>25.80054752884514</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44927.21319444444</v>
+        <v>44927.2125</v>
       </c>
       <c r="B308" t="n">
-        <v>25.64509827982765</v>
+        <v>25.5822802491907</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44927.21388888889</v>
+        <v>44927.21319444444</v>
       </c>
       <c r="B309" t="n">
-        <v>25.51245263444224</v>
+        <v>25.64509827982765</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44927.21458333333</v>
+        <v>44927.21388888889</v>
       </c>
       <c r="B310" t="n">
-        <v>25.64161766231554</v>
+        <v>25.51245263444224</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44927.21527777778</v>
+        <v>44927.21458333333</v>
       </c>
       <c r="B311" t="n">
-        <v>25.25544385160804</v>
+        <v>25.64161766231554</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44927.21597222222</v>
+        <v>44927.21527777778</v>
       </c>
       <c r="B312" t="n">
-        <v>24.85910284779066</v>
+        <v>25.25544385160804</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44927.21666666667</v>
+        <v>44927.21597222222</v>
       </c>
       <c r="B313" t="n">
-        <v>25.22239789554248</v>
+        <v>24.85910284779066</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44927.21736111111</v>
+        <v>44927.21666666667</v>
       </c>
       <c r="B314" t="n">
-        <v>25.83263967156537</v>
+        <v>25.22239789554248</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44927.21805555555</v>
+        <v>44927.21736111111</v>
       </c>
       <c r="B315" t="n">
-        <v>26.08666029632936</v>
+        <v>25.83263967156537</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44927.21875</v>
+        <v>44927.21805555555</v>
       </c>
       <c r="B316" t="n">
-        <v>25.51327818558959</v>
+        <v>26.08666029632936</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44927.21944444445</v>
+        <v>44927.21875</v>
       </c>
       <c r="B317" t="n">
-        <v>24.71749685391386</v>
+        <v>25.51327818558959</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44927.22013888889</v>
+        <v>44927.21944444445</v>
       </c>
       <c r="B318" t="n">
-        <v>24.61742700013379</v>
+        <v>24.71749685391386</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44927.22083333333</v>
+        <v>44927.22013888889</v>
       </c>
       <c r="B319" t="n">
-        <v>24.0372707300607</v>
+        <v>24.61742700013379</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44927.22152777778</v>
+        <v>44927.22083333333</v>
       </c>
       <c r="B320" t="n">
-        <v>24.77004934306019</v>
+        <v>24.0372707300607</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44927.22222222222</v>
+        <v>44927.22152777778</v>
       </c>
       <c r="B321" t="n">
-        <v>25.01032106152054</v>
+        <v>24.77004934306019</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44927.22291666667</v>
+        <v>44927.22222222222</v>
       </c>
       <c r="B322" t="n">
-        <v>24.76383328521307</v>
+        <v>25.01032106152054</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44927.22361111111</v>
+        <v>44927.22291666667</v>
       </c>
       <c r="B323" t="n">
-        <v>25.08729691681392</v>
+        <v>24.76383328521307</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44927.22430555556</v>
+        <v>44927.22361111111</v>
       </c>
       <c r="B324" t="n">
-        <v>25.3738581376203</v>
+        <v>25.08729691681392</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44927.225</v>
+        <v>44927.22430555556</v>
       </c>
       <c r="B325" t="n">
-        <v>26.16109073937141</v>
+        <v>25.3738581376203</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44927.22569444445</v>
+        <v>44927.225</v>
       </c>
       <c r="B326" t="n">
-        <v>25.78228221567035</v>
+        <v>26.16109073937141</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44927.22638888889</v>
+        <v>44927.22569444445</v>
       </c>
       <c r="B327" t="n">
-        <v>26.51920716606371</v>
+        <v>25.78228221567035</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44927.22708333333</v>
+        <v>44927.22638888889</v>
       </c>
       <c r="B328" t="n">
-        <v>26.73430648828859</v>
+        <v>26.51920716606371</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44927.22777777778</v>
+        <v>44927.22708333333</v>
       </c>
       <c r="B329" t="n">
-        <v>26.97625274710112</v>
+        <v>26.73430648828859</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44927.22847222222</v>
+        <v>44927.22777777778</v>
       </c>
       <c r="B330" t="n">
-        <v>26.23563593072274</v>
+        <v>26.97625274710112</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44927.22916666666</v>
+        <v>44927.22847222222</v>
       </c>
       <c r="B331" t="n">
-        <v>25.98348369392218</v>
+        <v>26.23563593072274</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44927.22986111111</v>
+        <v>44927.22916666666</v>
       </c>
       <c r="B332" t="n">
-        <v>24.7983057271784</v>
+        <v>25.98348369392218</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44927.23055555556</v>
+        <v>44927.22986111111</v>
       </c>
       <c r="B333" t="n">
-        <v>25.83429229122248</v>
+        <v>24.7983057271784</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44927.23125</v>
+        <v>44927.23055555556</v>
       </c>
       <c r="B334" t="n">
-        <v>26.0188027893326</v>
+        <v>25.83429229122248</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44927.23194444444</v>
+        <v>44927.23125</v>
       </c>
       <c r="B335" t="n">
-        <v>25.55247197068921</v>
+        <v>26.0188027893326</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44927.23263888889</v>
+        <v>44927.23194444444</v>
       </c>
       <c r="B336" t="n">
-        <v>25.16615149576472</v>
+        <v>25.55247197068921</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44927.23333333333</v>
+        <v>44927.23263888889</v>
       </c>
       <c r="B337" t="n">
-        <v>25.84189199779784</v>
+        <v>25.16615149576472</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44927.23402777778</v>
+        <v>44927.23333333333</v>
       </c>
       <c r="B338" t="n">
-        <v>25.35109376683235</v>
+        <v>25.84189199779784</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44927.23472222222</v>
+        <v>44927.23402777778</v>
       </c>
       <c r="B339" t="n">
-        <v>25.82665743879004</v>
+        <v>25.35109376683235</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44927.23541666667</v>
+        <v>44927.23472222222</v>
       </c>
       <c r="B340" t="n">
-        <v>25.59567295080651</v>
+        <v>25.82665743879004</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44927.23611111111</v>
+        <v>44927.23541666667</v>
       </c>
       <c r="B341" t="n">
-        <v>25.62037432124245</v>
+        <v>25.59567295080651</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44927.23680555556</v>
+        <v>44927.23611111111</v>
       </c>
       <c r="B342" t="n">
-        <v>26.190659197349</v>
+        <v>25.62037432124245</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44927.2375</v>
+        <v>44927.23680555556</v>
       </c>
       <c r="B343" t="n">
-        <v>26.16406781095534</v>
+        <v>26.190659197349</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44927.23819444444</v>
+        <v>44927.2375</v>
       </c>
       <c r="B344" t="n">
-        <v>26.19878980999319</v>
+        <v>26.16406781095534</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44927.23888888889</v>
+        <v>44927.23819444444</v>
       </c>
       <c r="B345" t="n">
-        <v>25.23772913937336</v>
+        <v>26.19878980999319</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44927.23958333334</v>
+        <v>44927.23888888889</v>
       </c>
       <c r="B346" t="n">
-        <v>24.78456366518498</v>
+        <v>25.23772913937336</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44927.24027777778</v>
+        <v>44927.23958333334</v>
       </c>
       <c r="B347" t="n">
-        <v>24.7025647713711</v>
+        <v>24.78456366518498</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44927.24097222222</v>
+        <v>44927.24027777778</v>
       </c>
       <c r="B348" t="n">
-        <v>24.3280263433571</v>
+        <v>24.7025647713711</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44927.24166666667</v>
+        <v>44927.24097222222</v>
       </c>
       <c r="B349" t="n">
-        <v>24.98559015401062</v>
+        <v>24.3280263433571</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44927.24236111111</v>
+        <v>44927.24166666667</v>
       </c>
       <c r="B350" t="n">
-        <v>24.45429094875854</v>
+        <v>24.98559015401062</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44927.24305555555</v>
+        <v>44927.24236111111</v>
       </c>
       <c r="B351" t="n">
-        <v>25.15718418316426</v>
+        <v>24.45429094875854</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44927.24375</v>
+        <v>44927.24305555555</v>
       </c>
       <c r="B352" t="n">
-        <v>24.98206056839931</v>
+        <v>25.15718418316426</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44927.24444444444</v>
+        <v>44927.24375</v>
       </c>
       <c r="B353" t="n">
-        <v>24.72340302574968</v>
+        <v>24.98206056839931</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44927.24513888889</v>
+        <v>44927.24444444444</v>
       </c>
       <c r="B354" t="n">
-        <v>24.08371436756301</v>
+        <v>24.72340302574968</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44927.24583333333</v>
+        <v>44927.24513888889</v>
       </c>
       <c r="B355" t="n">
-        <v>23.78139285524016</v>
+        <v>24.08371436756301</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44927.24652777778</v>
+        <v>44927.24583333333</v>
       </c>
       <c r="B356" t="n">
-        <v>24.27199531925023</v>
+        <v>23.78139285524016</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44927.24722222222</v>
+        <v>44927.24652777778</v>
       </c>
       <c r="B357" t="n">
-        <v>24.23479896785312</v>
+        <v>24.27199531925023</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44927.24791666667</v>
+        <v>44927.24722222222</v>
       </c>
       <c r="B358" t="n">
-        <v>24.50162430738239</v>
+        <v>24.23479896785312</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44927.24861111111</v>
+        <v>44927.24791666667</v>
       </c>
       <c r="B359" t="n">
-        <v>23.9179984422507</v>
+        <v>24.50162430738239</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44927.24930555555</v>
+        <v>44927.24861111111</v>
       </c>
       <c r="B360" t="n">
-        <v>24.19875924642123</v>
+        <v>23.9179984422507</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44927.25</v>
+        <v>44927.24930555555</v>
       </c>
       <c r="B361" t="n">
-        <v>24.78175705517386</v>
+        <v>24.19875924642123</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44927.25069444445</v>
+        <v>44927.25</v>
       </c>
       <c r="B362" t="n">
-        <v>24.6939402602137</v>
+        <v>24.78175705517386</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44927.25138888889</v>
+        <v>44927.25069444445</v>
       </c>
       <c r="B363" t="n">
-        <v>24.65158780227425</v>
+        <v>24.6939402602137</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44927.25208333333</v>
+        <v>44927.25138888889</v>
       </c>
       <c r="B364" t="n">
-        <v>24.41327576842761</v>
+        <v>24.65158780227425</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44927.25277777778</v>
+        <v>44927.25208333333</v>
       </c>
       <c r="B365" t="n">
-        <v>24.07411595656477</v>
+        <v>24.41327576842761</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44927.25347222222</v>
+        <v>44927.25277777778</v>
       </c>
       <c r="B366" t="n">
-        <v>23.55549780530977</v>
+        <v>24.07411595656477</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44927.25416666667</v>
+        <v>44927.25347222222</v>
       </c>
       <c r="B367" t="n">
-        <v>24.07305271511945</v>
+        <v>23.55549780530977</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44927.25486111111</v>
+        <v>44927.25416666667</v>
       </c>
       <c r="B368" t="n">
-        <v>23.82806436064161</v>
+        <v>24.07305271511945</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44927.25555555556</v>
+        <v>44927.25486111111</v>
       </c>
       <c r="B369" t="n">
-        <v>24.2699199171415</v>
+        <v>23.82806436064161</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44927.25625</v>
+        <v>44927.25555555556</v>
       </c>
       <c r="B370" t="n">
-        <v>23.4600228199137</v>
+        <v>24.2699199171415</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44927.25694444445</v>
+        <v>44927.25625</v>
       </c>
       <c r="B371" t="n">
-        <v>24.00475232027829</v>
+        <v>23.4600228199137</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44927.25763888889</v>
+        <v>44927.25694444445</v>
       </c>
       <c r="B372" t="n">
-        <v>23.7789630166016</v>
+        <v>24.00475232027829</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44927.25833333333</v>
+        <v>44927.25763888889</v>
       </c>
       <c r="B373" t="n">
-        <v>24.01918273623238</v>
+        <v>23.7789630166016</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44927.25902777778</v>
+        <v>44927.25833333333</v>
       </c>
       <c r="B374" t="n">
-        <v>23.23986639311682</v>
+        <v>24.01918273623238</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44927.25972222222</v>
+        <v>44927.25902777778</v>
       </c>
       <c r="B375" t="n">
-        <v>23.13725391981917</v>
+        <v>23.23986639311682</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44927.26041666666</v>
+        <v>44927.25972222222</v>
       </c>
       <c r="B376" t="n">
-        <v>22.69815721977876</v>
+        <v>23.13725391981917</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44927.26111111111</v>
+        <v>44927.26041666666</v>
       </c>
       <c r="B377" t="n">
-        <v>22.5228557418837</v>
+        <v>22.69815721977876</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44927.26180555556</v>
+        <v>44927.26111111111</v>
       </c>
       <c r="B378" t="n">
-        <v>23.65565118406879</v>
+        <v>22.5228557418837</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44927.2625</v>
+        <v>44927.26180555556</v>
       </c>
       <c r="B379" t="n">
-        <v>24.44555346219698</v>
+        <v>23.65565118406879</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44927.26319444444</v>
+        <v>44927.2625</v>
       </c>
       <c r="B380" t="n">
-        <v>24.25200069676523</v>
+        <v>24.44555346219698</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44927.26388888889</v>
+        <v>44927.26319444444</v>
       </c>
       <c r="B381" t="n">
-        <v>24.83632173095119</v>
+        <v>24.25200069676523</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44927.26458333333</v>
+        <v>44927.26388888889</v>
       </c>
       <c r="B382" t="n">
-        <v>25.32462750882645</v>
+        <v>24.83632173095119</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44927.26527777778</v>
+        <v>44927.26458333333</v>
       </c>
       <c r="B383" t="n">
-        <v>26.01519022822169</v>
+        <v>25.32462750882645</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44927.26597222222</v>
+        <v>44927.26527777778</v>
       </c>
       <c r="B384" t="n">
-        <v>27.0090894838195</v>
+        <v>26.01519022822169</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44927.26666666667</v>
+        <v>44927.26597222222</v>
       </c>
       <c r="B385" t="n">
-        <v>27.00430997997156</v>
+        <v>27.0090894838195</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44927.26736111111</v>
+        <v>44927.26666666667</v>
       </c>
       <c r="B386" t="n">
-        <v>26.00232246959787</v>
+        <v>27.00430997997156</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44927.26805555556</v>
+        <v>44927.26736111111</v>
       </c>
       <c r="B387" t="n">
-        <v>25.29159643860678</v>
+        <v>26.00232246959787</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44927.26875</v>
+        <v>44927.26805555556</v>
       </c>
       <c r="B388" t="n">
-        <v>24.55889224645589</v>
+        <v>25.29159643860678</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44927.26944444444</v>
+        <v>44927.26875</v>
       </c>
       <c r="B389" t="n">
-        <v>24.47745994577752</v>
+        <v>24.55889224645589</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44927.27013888889</v>
+        <v>44927.26944444444</v>
       </c>
       <c r="B390" t="n">
-        <v>24.38835318545174</v>
+        <v>24.47745994577752</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44927.27083333334</v>
+        <v>44927.27013888889</v>
       </c>
       <c r="B391" t="n">
-        <v>24.12584950892747</v>
+        <v>24.38835318545174</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44927.27152777778</v>
+        <v>44927.27083333334</v>
       </c>
       <c r="B392" t="n">
-        <v>23.32396306957483</v>
+        <v>24.12584950892747</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44927.27222222222</v>
+        <v>44927.27152777778</v>
       </c>
       <c r="B393" t="n">
-        <v>23.09589677706337</v>
+        <v>23.32396306957483</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44927.27291666667</v>
+        <v>44927.27222222222</v>
       </c>
       <c r="B394" t="n">
-        <v>22.88032456328244</v>
+        <v>23.09589677706337</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44927.27361111111</v>
+        <v>44927.27291666667</v>
       </c>
       <c r="B395" t="n">
-        <v>23.96149266580894</v>
+        <v>22.88032456328244</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44927.27430555555</v>
+        <v>44927.27361111111</v>
       </c>
       <c r="B396" t="n">
-        <v>24.36268519282195</v>
+        <v>23.96149266580894</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44927.275</v>
+        <v>44927.27430555555</v>
       </c>
       <c r="B397" t="n">
-        <v>24.26480367908175</v>
+        <v>24.36268519282195</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44927.27569444444</v>
+        <v>44927.275</v>
       </c>
       <c r="B398" t="n">
-        <v>23.80798791274395</v>
+        <v>24.26480367908175</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44927.27638888889</v>
+        <v>44927.27569444444</v>
       </c>
       <c r="B399" t="n">
-        <v>23.8367883469807</v>
+        <v>23.80798791274395</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44927.27708333333</v>
+        <v>44927.27638888889</v>
       </c>
       <c r="B400" t="n">
-        <v>23.73748010914075</v>
+        <v>23.8367883469807</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44927.27777777778</v>
+        <v>44927.27708333333</v>
       </c>
       <c r="B401" t="n">
-        <v>23.5093889463862</v>
+        <v>23.73748010914075</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44927.27847222222</v>
+        <v>44927.27777777778</v>
       </c>
       <c r="B402" t="n">
-        <v>23.11283859076631</v>
+        <v>23.5093889463862</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44927.27916666667</v>
+        <v>44927.27847222222</v>
       </c>
       <c r="B403" t="n">
-        <v>23.71852133208629</v>
+        <v>23.11283859076631</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44927.27986111111</v>
+        <v>44927.27916666667</v>
       </c>
       <c r="B404" t="n">
-        <v>23.9850850630527</v>
+        <v>23.71852133208629</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44927.28055555555</v>
+        <v>44927.27986111111</v>
       </c>
       <c r="B405" t="n">
-        <v>24.30301028556914</v>
+        <v>23.9850850630527</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44927.28125</v>
+        <v>44927.28055555555</v>
       </c>
       <c r="B406" t="n">
-        <v>24.83168340635599</v>
+        <v>24.30301028556914</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44927.28194444445</v>
+        <v>44927.28125</v>
       </c>
       <c r="B407" t="n">
-        <v>25.04093299620155</v>
+        <v>24.83168340635599</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44927.28263888889</v>
+        <v>44927.28194444445</v>
       </c>
       <c r="B408" t="n">
-        <v>24.5331358963602</v>
+        <v>25.04093299620155</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44927.28333333333</v>
+        <v>44927.28263888889</v>
       </c>
       <c r="B409" t="n">
-        <v>24.463559596856</v>
+        <v>24.5331358963602</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44927.28402777778</v>
+        <v>44927.28333333333</v>
       </c>
       <c r="B410" t="n">
-        <v>24.88882035088856</v>
+        <v>24.463559596856</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44927.28472222222</v>
+        <v>44927.28402777778</v>
       </c>
       <c r="B411" t="n">
-        <v>25.54612524769277</v>
+        <v>24.88882035088856</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44927.28541666667</v>
+        <v>44927.28472222222</v>
       </c>
       <c r="B412" t="n">
-        <v>24.92887725789809</v>
+        <v>25.54612524769277</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44927.28611111111</v>
+        <v>44927.28541666667</v>
       </c>
       <c r="B413" t="n">
-        <v>25.43523877157925</v>
+        <v>24.92887725789809</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44927.28680555556</v>
+        <v>44927.28611111111</v>
       </c>
       <c r="B414" t="n">
-        <v>26.13320876156573</v>
+        <v>25.43523877157925</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44927.2875</v>
+        <v>44927.28680555556</v>
       </c>
       <c r="B415" t="n">
-        <v>25.91362856993489</v>
+        <v>26.13320876156573</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
+        <v>44927.2875</v>
+      </c>
+      <c r="B416" t="n">
+        <v>25.91362856993489</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
         <v>44927.28819444445</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B417" t="n">
         <v>25.37019287427477</v>
       </c>
     </row>
